--- a/GL180_Script_CreateManualStatisticalJournalEntry_21B.xlsx
+++ b/GL180_Script_CreateManualStatisticalJournalEntry_21B.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027590E9-1590-464F-84F5-80E684898D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6D122-1EEE-4674-AB7A-D47DB68DE233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateSingleBatchwAtch" sheetId="30" r:id="rId1"/>
+    <sheet name="CreateStatsJournalEntry" sheetId="30" r:id="rId1"/>
     <sheet name="AllObjects" sheetId="29" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateSingleBatchwAtch!$A$1:$N$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateStatsJournalEntry!$A$1:$N$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="497">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -1289,9 +1289,6 @@
     <t>AccountLineCredit</t>
   </si>
   <si>
-    <t>//*[@id="pt1:_FOr1:1:_FONSr2:0:MAnt2:1:pt1:ap1:jeLineAppTable:_ATp:t3::db"]/table/tbody/tr[2]/td[4]</t>
-  </si>
-  <si>
     <t>Account2</t>
   </si>
   <si>
@@ -1311,6 +1308,225 @@
   </si>
   <si>
     <t>Create Manual Statistical Journal Entry</t>
+  </si>
+  <si>
+    <t>VerifySearchJournalValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>EnterJournalBatchValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value10::content')]</t>
+  </si>
+  <si>
+    <t>AccountingPeriodValidation</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Accounting Period']]/input</t>
+  </si>
+  <si>
+    <t>EnterJournalNameValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value00::content')]</t>
+  </si>
+  <si>
+    <t>DoneValidation</t>
+  </si>
+  <si>
+    <t>//a/span[text()='ne']</t>
+  </si>
+  <si>
+    <t>BasicValidation</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>AdvancedValidation</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>TasksValidation</t>
+  </si>
+  <si>
+    <t>SearchValidation</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
+  </si>
+  <si>
+    <t>ManageJournalsValidation</t>
+  </si>
+  <si>
+    <t>//a[text()='Manage Journals']</t>
+  </si>
+  <si>
+    <t>TasksPanelDivValidation</t>
+  </si>
+  <si>
+    <t>Manage Journal Page</t>
+  </si>
+  <si>
+    <t>Step 92</t>
+  </si>
+  <si>
+    <t>Step 93</t>
+  </si>
+  <si>
+    <t>Step 94</t>
+  </si>
+  <si>
+    <t>Step 95</t>
+  </si>
+  <si>
+    <t>Explicit wait for ManageJournals</t>
+  </si>
+  <si>
+    <t>Step 96</t>
+  </si>
+  <si>
+    <t>Click on ManageJournals</t>
+  </si>
+  <si>
+    <t>Clicked on ManageJournals</t>
+  </si>
+  <si>
+    <t>Step 97</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Step 98</t>
+  </si>
+  <si>
+    <t>Explicit wait for Basic</t>
+  </si>
+  <si>
+    <t>Step 99</t>
+  </si>
+  <si>
+    <t>Click on Basic</t>
+  </si>
+  <si>
+    <t>Clicked on Basic</t>
+  </si>
+  <si>
+    <t>Step 100</t>
+  </si>
+  <si>
+    <t>Explicit wait for Advanced</t>
+  </si>
+  <si>
+    <t>Step 101</t>
+  </si>
+  <si>
+    <t>Explicit wait for EnterBatch</t>
+  </si>
+  <si>
+    <t>Step 102</t>
+  </si>
+  <si>
+    <t>Step 103</t>
+  </si>
+  <si>
+    <t>Enter Journal Name</t>
+  </si>
+  <si>
+    <t>Journal Name Entered</t>
+  </si>
+  <si>
+    <t>Step 104</t>
+  </si>
+  <si>
+    <t>Entered Journal Name</t>
+  </si>
+  <si>
+    <t>Step 105</t>
+  </si>
+  <si>
+    <t>Tab Key Enter</t>
+  </si>
+  <si>
+    <t>Tab Key Entered</t>
+  </si>
+  <si>
+    <t>Step 106</t>
+  </si>
+  <si>
+    <t>Step 107</t>
+  </si>
+  <si>
+    <t>Step 108</t>
+  </si>
+  <si>
+    <t>Enter Accounting Period</t>
+  </si>
+  <si>
+    <t>Entered Accounting Period</t>
+  </si>
+  <si>
+    <t>Step 109</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Clicked on search</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>Verified Text</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>Explicit wait for Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Done </t>
+  </si>
+  <si>
+    <t>Clicked on Done</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 88</t>
+  </si>
+  <si>
+    <t>Step 89</t>
+  </si>
+  <si>
+    <t>Step 90</t>
+  </si>
+  <si>
+    <t>Step 91</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ap1:jeLineAppTable:_ATp:t3:1:j_id118')]</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +2007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1897,6 +2113,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -9744,7 +9971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9758,6 +9985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="7828" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7829">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17590,7 +17818,587 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="176">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19115,15 +19923,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.7265625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -19380,9 +20188,6 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -19416,9 +20221,6 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -19447,9 +20249,6 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -19483,9 +20282,6 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -19512,9 +20308,6 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -19548,9 +20341,6 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -19578,7 +20368,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>66</v>
@@ -19613,7 +20403,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>66</v>
@@ -19642,7 +20432,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>66</v>
@@ -19677,7 +20467,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -19712,7 +20502,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>66</v>
@@ -19741,7 +20531,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -19776,7 +20566,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>66</v>
@@ -19812,7 +20602,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>66</v>
@@ -19841,7 +20631,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>66</v>
@@ -19877,7 +20667,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>66</v>
@@ -19892,10 +20682,10 @@
         <v>331</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>61</v>
@@ -19910,7 +20700,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
@@ -19939,7 +20729,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>66</v>
@@ -19954,10 +20744,10 @@
         <v>331</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>61</v>
@@ -19972,7 +20762,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>66</v>
@@ -20008,7 +20798,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>66</v>
@@ -20040,7 +20830,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>66</v>
@@ -20055,10 +20845,10 @@
         <v>331</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>61</v>
@@ -20072,7 +20862,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>66</v>
@@ -20107,7 +20897,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>66</v>
@@ -20136,7 +20926,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>66</v>
@@ -20172,7 +20962,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
@@ -20208,7 +20998,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -20242,7 +21032,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -20271,7 +21061,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>66</v>
@@ -20305,7 +21095,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>66</v>
@@ -20339,7 +21129,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>66</v>
@@ -20354,10 +21144,10 @@
         <v>331</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>61</v>
@@ -20372,7 +21162,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -20401,7 +21191,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>66</v>
@@ -20437,7 +21227,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>66</v>
@@ -20471,7 +21261,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>66</v>
@@ -20486,10 +21276,10 @@
         <v>331</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>61</v>
@@ -20504,7 +21294,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>66</v>
@@ -20539,7 +21329,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>66</v>
@@ -20568,7 +21358,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>66</v>
@@ -20583,10 +21373,10 @@
         <v>331</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>61</v>
@@ -20601,7 +21391,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>66</v>
@@ -20637,7 +21427,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>66</v>
@@ -20652,10 +21442,10 @@
         <v>331</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>61</v>
@@ -20670,7 +21460,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>66</v>
@@ -20705,7 +21495,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>66</v>
@@ -20734,7 +21524,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>66</v>
@@ -20749,10 +21539,10 @@
         <v>331</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>61</v>
@@ -20767,7 +21557,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>66</v>
@@ -20803,7 +21593,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>66</v>
@@ -20818,10 +21608,10 @@
         <v>331</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>61</v>
@@ -20836,13 +21626,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>140</v>
@@ -20868,7 +21658,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>66</v>
@@ -20889,7 +21679,7 @@
         <v>30</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>61</v>
@@ -20903,7 +21693,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>66</v>
@@ -20932,7 +21722,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>66</v>
@@ -20947,10 +21737,10 @@
         <v>331</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>61</v>
@@ -20965,7 +21755,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>66</v>
@@ -20986,7 +21776,7 @@
         <v>281</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>161</v>
@@ -20994,7 +21784,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>66</v>
@@ -21015,7 +21805,7 @@
         <v>60</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>61</v>
@@ -21030,7 +21820,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>66</v>
@@ -21045,10 +21835,10 @@
         <v>331</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>61</v>
@@ -21063,7 +21853,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>66</v>
@@ -21078,10 +21868,10 @@
         <v>331</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>61</v>
@@ -21096,7 +21886,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>66</v>
@@ -21131,7 +21921,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>66</v>
@@ -21160,7 +21950,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>66</v>
@@ -21175,10 +21965,10 @@
         <v>331</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>61</v>
@@ -21193,7 +21983,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.5" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>66</v>
@@ -21229,7 +22019,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>66</v>
@@ -21261,7 +22051,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>66</v>
@@ -21276,10 +22066,10 @@
         <v>331</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>61</v>
@@ -21294,7 +22084,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>66</v>
@@ -21329,7 +22119,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>66</v>
@@ -21358,7 +22148,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>66</v>
@@ -21393,7 +22183,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>66</v>
@@ -21408,10 +22198,10 @@
         <v>331</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>61</v>
@@ -21426,7 +22216,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>66</v>
@@ -21461,7 +22251,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>66</v>
@@ -21490,7 +22280,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>66</v>
@@ -21505,10 +22295,10 @@
         <v>331</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>61</v>
@@ -21523,7 +22313,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>66</v>
@@ -21558,7 +22348,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>66</v>
@@ -21587,7 +22377,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>66</v>
@@ -21621,17 +22411,20 @@
       </c>
     </row>
     <row r="76" spans="1:13">
+      <c r="A76" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B76" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>399</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -21640,31 +22433,33 @@
         <v>30</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="M76" s="8" t="s">
-        <v>161</v>
+        <v>322</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:13">
+      <c r="A77" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B77" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
@@ -21673,31 +22468,27 @@
         <v>18</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" s="2"/>
+        <v>31</v>
+      </c>
       <c r="M77" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:13">
+      <c r="A78" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B78" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>401</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -21706,368 +22497,1385 @@
         <v>30</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>129</v>
+        <v>443</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K78" s="2"/>
+        <v>322</v>
+      </c>
       <c r="M78" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:13">
+      <c r="A79" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B79" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>129</v>
+        <v>441</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" s="2"/>
+        <v>322</v>
+      </c>
       <c r="M79" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:13">
+      <c r="A80" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B80" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>289</v>
+        <v>451</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>290</v>
+        <v>452</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K80" s="2"/>
+        <v>441</v>
+      </c>
       <c r="M80" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="1:13">
+      <c r="A81" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B81" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>404</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H81" s="4"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K81" s="2"/>
+        <v>324</v>
+      </c>
       <c r="M81" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="1:13">
+      <c r="A82" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B82" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>405</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>133</v>
+        <v>434</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K82" s="2"/>
+        <v>322</v>
+      </c>
       <c r="M82" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="1:13">
+      <c r="A83" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="B83" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>406</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="M88" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D89" t="s">
+        <v>471</v>
+      </c>
+      <c r="E89" t="s">
+        <v>472</v>
+      </c>
+      <c r="F89" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" t="s">
+        <v>220</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="M92" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D93" t="s">
+        <v>471</v>
+      </c>
+      <c r="E93" t="s">
+        <v>472</v>
+      </c>
+      <c r="F93" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="M96" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="M98" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="M101" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="B103" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K103" s="2"/>
+      <c r="M103" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="B104" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="M104" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="B105" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="M105" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="B106" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="2"/>
+      <c r="M106" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="B107" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="M107" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="B108" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="M108" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="B109" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="M109" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="B110" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K83" s="2"/>
-      <c r="M83" s="2" t="s">
+      <c r="K110" s="2"/>
+      <c r="M110" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="117" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="116" priority="1188"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="115" priority="1116"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="114" priority="1099"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="113" priority="1085"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="112" priority="1061"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="111" priority="1059"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="110" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="996"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="109" priority="944"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="990"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="108" priority="747"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="793"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="107" priority="745"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="791"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="106" priority="730"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="105" priority="728"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="774"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="104" priority="680"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="103" priority="653"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="699"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="102" priority="649"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="695"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="101" priority="646"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="692"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="100" priority="647"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="648"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="693"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="694"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="98" priority="640"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="686"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="97" priority="641"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="687"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="95" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="643"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="94" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="640"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="93" priority="595"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="641"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="642"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="91" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="637"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="90" priority="592"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="638"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="88" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="87" priority="503"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="86" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="85" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="84" priority="408"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="82" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="81" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="80" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="78" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="77" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="76" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="75" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="74" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="69" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="68" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="67" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="65" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="64" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="62" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="61" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="59" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="58" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="107" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="106" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="105" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="duplicateValues" dxfId="103" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="102" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="101" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="99" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="98" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="duplicateValues" dxfId="96" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="duplicateValues" dxfId="95" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="duplicateValues" dxfId="93" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="92" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="91" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="duplicateValues" dxfId="89" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="duplicateValues" dxfId="88" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="duplicateValues" dxfId="86" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="duplicateValues" dxfId="85" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="duplicateValues" dxfId="84" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="duplicateValues" dxfId="82" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="duplicateValues" dxfId="81" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="79" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="78" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="76" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="75" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="73" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="72" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="67" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3 I8" xr:uid="{37FA9261-27ED-4E5E-9102-3D0F7AEE54E0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G87 F93:G1048576 F88 F92 F89:G91" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -22078,10 +23886,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -23567,8 +25375,8 @@
       <c r="B106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>417</v>
+      <c r="C106" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>21</v>
@@ -23576,15 +25384,169 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="6" customFormat="1">
+      <c r="A110" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="6" customFormat="1">
+      <c r="A111" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="6" customFormat="1">
+      <c r="A112" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="6" customFormat="1">
+      <c r="A113" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1">
+      <c r="A114" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1">
+      <c r="A115" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="6" customFormat="1">
+      <c r="A116" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1">
+      <c r="A117" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="6" customFormat="1">
+      <c r="A118" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1">
+      <c r="A119" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -23592,123 +25554,151 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D9">
     <sortCondition ref="D2:D9"/>
   </sortState>
-  <conditionalFormatting sqref="A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A108:A1048576">
-    <cfRule type="duplicateValues" dxfId="49" priority="128"/>
+  <conditionalFormatting sqref="A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A108 A120:A1048576">
+    <cfRule type="duplicateValues" dxfId="61" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A108:A1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="132"/>
+  <conditionalFormatting sqref="A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A108 A120:A1048576">
+    <cfRule type="duplicateValues" dxfId="60" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A39">
+    <cfRule type="duplicateValues" dxfId="55" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A39">
+    <cfRule type="duplicateValues" dxfId="54" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="46" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="45" priority="46"/>
     <cfRule type="duplicateValues" dxfId="44" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="43" priority="199"/>
+  <conditionalFormatting sqref="A63:A70">
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="42" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="202"/>
+  <conditionalFormatting sqref="A63:A70">
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="40" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="39" priority="40"/>
     <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="37" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="36" priority="37"/>
     <cfRule type="duplicateValues" dxfId="35" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A81:A82">
     <cfRule type="duplicateValues" dxfId="34" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A81:A82">
     <cfRule type="duplicateValues" dxfId="33" priority="34"/>
     <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
+  <conditionalFormatting sqref="A91:A94">
     <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
+  <conditionalFormatting sqref="A91:A94">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
     <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
     <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A115">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A115">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
